--- a/docs/uc_page_htmls/downloaded_excels/UC610-order_details.xlsx
+++ b/docs/uc_page_htmls/downloaded_excels/UC610-order_details.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,11 @@
           <t>UC610-0890</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>Dry cleaning</t>
@@ -556,6 +561,11 @@
           <t>UC610-0867</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>Dry cleaning</t>
@@ -608,6 +618,11 @@
           <t>UC610-0867</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>Laundry - Wash &amp; Fold</t>
@@ -660,6 +675,11 @@
           <t>UC610-0869</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>Laundry - Wash &amp; Fold</t>
@@ -712,6 +732,11 @@
           <t>UC610-0868</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>Laundry - Wash &amp; Fold</t>
@@ -764,6 +789,11 @@
           <t>UC610-0868</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>Laundry - Wash &amp; Iron</t>
@@ -816,6 +846,11 @@
           <t>UC610-0871</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>Laundry - Wash &amp; Fold</t>
@@ -868,6 +903,11 @@
           <t>UC610-0862</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>Laundry - Wash &amp; Iron</t>
@@ -920,6 +960,11 @@
           <t>UC610-0861</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>Laundry - Wash &amp; Fold</t>
@@ -972,6 +1017,11 @@
           <t>UC610-0859</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>Laundry - Wash &amp; Fold</t>
@@ -1024,6 +1074,11 @@
           <t>UC610-0852</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>Dry cleaning</t>
@@ -1076,6 +1131,11 @@
           <t>UC610-0846</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>Laundry - Wash &amp; Fold</t>
@@ -1128,6 +1188,11 @@
           <t>UC610-0846</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>Laundry - Wash &amp; Iron</t>
@@ -1180,6 +1245,11 @@
           <t>UC610-0845</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>Laundry - Wash &amp; Fold</t>
@@ -1232,6 +1302,11 @@
           <t>UC610-0844</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>Dry cleaning</t>
@@ -1244,17 +1319,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Combo - Shirt and Pant; sweater full sleeves; Ladies Suit 2pcs</t>
+          <t>Combo - Shirt and Pant</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>149.00; 149.00; 299.00</t>
+          <t>149.00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1; 1; 1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1284,44 +1359,34 @@
           <t>UC610-0844</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Laundry - Wash &amp; Fold</t>
+          <t>Dry cleaning</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>999711</t>
+          <t>999712</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>sweater full sleeves</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>149.00</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>260.37</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1398,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>UC610-0836</t>
+          <t>UC610-0844</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Laundry - Wash &amp; Fold</t>
+          <t>Dry cleaning</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>999711</t>
+          <t>999712</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ladies Suit 2pcs</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>299.00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>3.845</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>380.65</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1385,27 +1440,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>UC610-0834</t>
+          <t>UC610-0844</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dry cleaning</t>
+          <t>Laundry - Wash &amp; Fold</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>999712</t>
+          <t>999711</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Blazer / Coat - Long</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>399.00</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1415,7 +1475,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1425,7 +1485,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>399.00</t>
+          <t>260.37</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1497,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>UC610-0832</t>
+          <t>UC610-0836</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CUSTOMER CARE</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1462,12 +1527,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>3.185</t>
+          <t>3.845</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1477,7 +1542,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>315.31</t>
+          <t>380.65</t>
         </is>
       </c>
     </row>
@@ -1489,37 +1554,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>UC610-0829</t>
+          <t>UC610-0834</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>APP</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Laundry - Wash &amp; Fold</t>
+          <t>Dry cleaning</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>999711</t>
+          <t>999712</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Blazer / Coat - Long</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>399.00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1529,7 +1599,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>198.00</t>
+          <t>399.00</t>
         </is>
       </c>
     </row>
@@ -1541,37 +1611,42 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>UC610-0827</t>
+          <t>UC610-0832</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dry cleaning</t>
+          <t>Laundry - Wash &amp; Fold</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>999712</t>
+          <t>999711</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Kurta Payjama ( Light ); Formal and Casual Trousers / Pants; Shirt</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>199.00; 109.00; 109.00</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1; 1; 1</t>
+          <t>24</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3.185</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1581,7 +1656,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>417.00</t>
+          <t>315.31</t>
         </is>
       </c>
     </row>
@@ -1593,37 +1668,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>UC610-0825</t>
+          <t>UC610-0829</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Steam Press</t>
+          <t>Laundry - Wash &amp; Fold</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>845130</t>
+          <t>999711</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>T - Shirt; Shirt; Wind Cheater / Rain Coat; Formal and Casual Trousers / Pants; Jeans</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>55.00; 55.00; 54.00; 29.00; 69.00</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4; 2; 1; 1; 2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1633,7 +1713,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>551.00</t>
+          <t>198.00</t>
         </is>
       </c>
     </row>
@@ -1645,27 +1725,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>UC610-0824</t>
+          <t>UC610-0827</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>APP</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Laundry - Wash &amp; Fold</t>
+          <t>Dry cleaning</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>999711</t>
+          <t>999712</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Kurta Payjama ( Light )</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>199.00</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1675,7 +1760,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -1685,7 +1770,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>417.00</t>
         </is>
       </c>
     </row>
@@ -1697,47 +1782,3721 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>UC610-0827</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Formal and Casual Trousers / Pants</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>UC610-0827</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Shirt</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>UC610-0825</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Steam Press</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>845130</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>T - Shirt</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>55.00</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>551.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>UC610-0825</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Steam Press</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>845130</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Shirt</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>55.00</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>UC610-0825</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Steam Press</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>845130</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Wind Cheater / Rain Coat</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>54.00</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>UC610-0825</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Steam Press</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>845130</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Formal and Casual Trousers / Pants</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>UC610-0825</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Steam Press</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>845130</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Jeans</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>UC610-0824</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>UC610-0823</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>Dry cleaning</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>999712</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>Blazer / Coat - Short</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>299.00</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>299.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>UC610-0837</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>7.3</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>722.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>UC610-0858</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Shirt</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>517.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>UC610-0858</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Jacket Normal Short</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>UC610-0858</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Formal and Casual Trousers / Pants</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>UC610-0847</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>T - Shirt</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>UC610-0839</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>TOWELS</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>220.34</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>220.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>UC610-0826</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>139.00</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>4.265</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>592.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>UC610-0828</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2.775</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>274.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>UC610-0822</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>139.00</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>13.12</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>1823.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>UC610-0817</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CUSTOMER CARE</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Jacket Normal Short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>1345.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>UC610-0817</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CUSTOMER CARE</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Sweater / Cardigan - Full Sleeve</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>199.00</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>UC610-0817</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CUSTOMER CARE</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>COMFORTER</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>249.00</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>UC610-0816</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Premium Laundry Kg</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>249.00</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2118.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>UC610-0818</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>139.00</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>1181.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>UC610-0813</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Blazer / Coat - Short</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>897.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>UC610-0813</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Blazer / Coat - Long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>399.00</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>UC610-0813</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Sweater / Cardigan - Full Sleeve</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>199.00</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>UC610-0813</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Premium Laundry Kg</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>249.00</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>8.375</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2085.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>UC610-0811</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>3.005</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>297.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>UC610-0810</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Bath Mat ( Small )</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>49.00</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>147.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>UC610-0810</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>139.00</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>1102.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>UC610-0528</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Parka Coat Long</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>278.81</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>4067.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>UC610-0528</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Jacket - Faux fur Short</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>253.39</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>UC610-0528</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Sweater / Cardigan - Full Sleeve</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>168.64</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>UC610-0528</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Sweater / Cardigan - Sleeveless</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>143.22</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>UC610-0528</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>SHAWL</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>168.64</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>UC610-0528</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Jacket Normal Short</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>253.39</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>UC610-0528</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Shawl Woolen</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>253.39</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>UC610-0528</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Coat - Short</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>151.69</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>UC610-0833</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Jacket Puffer Short</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>603.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>UC610-0833</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Skirt Long</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>155.00</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>UC610-0833</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Jacket</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>149.00</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>UC610-0819</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>TOWELS</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>289.83</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>289.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>UC610-0830</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>towels</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>245.76</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>245.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>UC610-0769</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Shoes Sports</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>349.00</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>349.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>UC610-0774</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>238.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>UC610-0774</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>139.00</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>361.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>UC610-0799</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Jacket Normal Short</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>UC610-0799</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>9.645</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>954.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>UC610-0800</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>8.225</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>814.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>UC610-0800</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>139.00</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>973.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>UC610-0781</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Sweater / Cardigan - Full Sleeve</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>168.64</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>337.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>UC610-0781</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>216.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>UC610-0797</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>139.00</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>1.525</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>211.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>UC610-0798</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>185.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>UC610-0798</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>117.80</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>1.575</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>185.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>UC610-0791</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>492.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>UC610-0802</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Trousers</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>129.00</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>428.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>UC610-0802</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Jacket Normal Short</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>UC610-0738</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>SHOES</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>254.24</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>254.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>UC610-0805</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>SHOES</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>254.24</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>254.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>UC610-0805</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>117.80</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>8.975</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>1057.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>UC610-0780</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Blazer / Coat - Long</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>399.00</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>1485.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>UC610-0780</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Coat - Long</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>229.00</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>UC610-0780</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Suit 2 Pc</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>359.00</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>UC610-0780</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Jacket Normal Short</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>UC610-0780</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Sweatshirt / Jumper</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>199.00</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>UC610-0782</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>towel</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>203.39</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>203.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>UC610-0768</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Formal and Casual Trousers / Pants</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>408.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>UC610-0768</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Jacket Normal Short</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>UC610-0759</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Formal and Casual Trousers / Pants</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>1006.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>UC610-0759</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Blazer / Coat - Short</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>UC610-0759</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Jacket Normal Short</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>UC610-0759</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Premium Laundry Kg</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>249.00</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>373.50</t>
         </is>
       </c>
     </row>

--- a/docs/uc_page_htmls/downloaded_excels/UC610-order_details.xlsx
+++ b/docs/uc_page_htmls/downloaded_excels/UC610-order_details.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,42 +501,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UC610-0869</t>
+          <t>UC610-0890</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Laundry - Wash &amp; Fold</t>
+          <t>Dry cleaning</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>999711</t>
+          <t>999712</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>towels</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>271.19</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>811.80</t>
+          <t>271.19</t>
         </is>
       </c>
     </row>
@@ -558,42 +558,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UC610-0836</t>
+          <t>UC610-0867</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUSTOMER CARE</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Laundry - Wash &amp; Fold</t>
+          <t>Dry cleaning</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>999711</t>
+          <t>999712</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T - Shirt</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>109.00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>3.845</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>380.65</t>
+          <t>109.00</t>
         </is>
       </c>
     </row>
@@ -615,42 +615,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UC610-0834</t>
+          <t>UC610-0867</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dry cleaning</t>
+          <t>Laundry - Wash &amp; Fold</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>999712</t>
+          <t>999711</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Blazer / Coat - Long</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>399.00</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2.825</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>399.00</t>
+          <t>279.68</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UC610-0827</t>
+          <t>UC610-0869</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -682,32 +682,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dry cleaning</t>
+          <t>Laundry - Wash &amp; Fold</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>999712</t>
+          <t>999711</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Kurta Payjama ( Light )</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>199.00</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>417.00</t>
+          <t>811.80</t>
         </is>
       </c>
     </row>
@@ -729,37 +729,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UC610-0827</t>
+          <t>UC610-0868</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dry cleaning</t>
+          <t>Laundry - Wash &amp; Fold</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>999712</t>
+          <t>999711</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Formal and Casual Trousers / Pants</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>109.00</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>714.78</t>
         </is>
       </c>
     </row>
@@ -771,37 +786,52 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>UC610-0827</t>
+          <t>UC610-0868</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dry cleaning</t>
+          <t>Laundry - Wash &amp; Iron</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>999712</t>
+          <t>999711</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Shirt</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>109.00</t>
+          <t>139.00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>3.655</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>508.05</t>
         </is>
       </c>
     </row>
@@ -813,42 +843,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>UC610-0817</t>
+          <t>UC610-0871</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUSTOMER CARE</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dry cleaning</t>
+          <t>Laundry - Wash &amp; Fold</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>999712</t>
+          <t>999711</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Jacket Normal Short</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>299.00</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -858,7 +888,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1345.00</t>
+          <t>178.20</t>
         </is>
       </c>
     </row>
@@ -870,37 +900,52 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UC610-0817</t>
+          <t>UC610-0862</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUSTOMER CARE</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dry cleaning</t>
+          <t>Laundry - Wash &amp; Iron</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>999712</t>
+          <t>999711</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Sweater / Cardigan - Full Sleeve</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>199.00</t>
+          <t>139.00</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>3.795</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>527.50</t>
         </is>
       </c>
     </row>
@@ -912,37 +957,52 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>UC610-0817</t>
+          <t>UC610-0861</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUSTOMER CARE</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dry cleaning</t>
+          <t>Laundry - Wash &amp; Fold</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>999712</t>
+          <t>999711</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>COMFORTER</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>249.00</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>6.045</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>598.46</t>
         </is>
       </c>
     </row>
@@ -954,32 +1014,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>UC610-0813</t>
+          <t>UC610-0859</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dry cleaning</t>
+          <t>Laundry - Wash &amp; Fold</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>999712</t>
+          <t>999711</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Blazer / Coat - Short</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>299.00</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -989,7 +1049,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -999,7 +1059,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>897.00</t>
+          <t>524.70</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1071,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>UC610-0813</t>
+          <t>UC610-0852</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1031,17 +1091,32 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Blazer / Coat - Long</t>
+          <t>Combo - Shirt and Pant</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>399.00</t>
+          <t>149.00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>149.00</t>
         </is>
       </c>
     </row>
@@ -1053,37 +1128,52 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>UC610-0813</t>
+          <t>UC610-0846</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dry cleaning</t>
+          <t>Laundry - Wash &amp; Fold</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>999712</t>
+          <t>999711</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Sweater / Cardigan - Full Sleeve</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>199.00</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>520.74</t>
         </is>
       </c>
     </row>
@@ -1095,17 +1185,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>UC610-0813</t>
+          <t>UC610-0846</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Premium Laundry Kg</t>
+          <t>Laundry - Wash &amp; Iron</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1120,17 +1210,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>249.00</t>
+          <t>139.00</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>8.375</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1140,7 +1230,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2085.38</t>
+          <t>993.85</t>
         </is>
       </c>
     </row>
@@ -1152,32 +1242,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UC610-0769</t>
+          <t>UC610-0845</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dry cleaning</t>
+          <t>Laundry - Wash &amp; Fold</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>999712</t>
+          <t>999711</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Shoes Sports</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>349.00</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1187,7 +1277,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6.815</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1197,7 +1287,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>349.00</t>
+          <t>674.68</t>
         </is>
       </c>
     </row>
@@ -1209,32 +1299,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>UC610-0797</t>
+          <t>UC610-0844</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Laundry - Wash &amp; Iron</t>
+          <t>Dry cleaning</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>999711</t>
+          <t>999712</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Combo - Shirt and Pant</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>139.00</t>
+          <t>149.00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1244,7 +1334,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1.525</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1254,7 +1344,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>211.97</t>
+          <t>597.00</t>
         </is>
       </c>
     </row>
@@ -1266,52 +1356,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>UC610-0791</t>
+          <t>UC610-0844</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Laundry - Wash &amp; Fold</t>
+          <t>Dry cleaning</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>999711</t>
+          <t>999712</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>sweater full sleeves</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>149.00</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>492.03</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1323,12 +1398,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>UC610-0759</t>
+          <t>UC610-0844</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1343,32 +1418,17 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Formal and Casual Trousers / Pants</t>
+          <t>Ladies Suit 2pcs</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>109.00</t>
+          <t>299.00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>1006.00</t>
         </is>
       </c>
     </row>
@@ -1380,37 +1440,52 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>UC610-0759</t>
+          <t>UC610-0844</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dry cleaning</t>
+          <t>Laundry - Wash &amp; Fold</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>999712</t>
+          <t>999711</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Blazer / Coat - Short</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>299.00</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>260.37</t>
         </is>
       </c>
     </row>
@@ -1422,37 +1497,52 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>UC610-0759</t>
+          <t>UC610-0836</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>CUSTOMER CARE</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dry cleaning</t>
+          <t>Laundry - Wash &amp; Fold</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>999712</t>
+          <t>999711</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Jacket Normal Short</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>299.00</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>3.845</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>380.65</t>
         </is>
       </c>
     </row>
@@ -1464,50 +1554,3947 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>UC610-0834</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Blazer / Coat - Long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>399.00</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>399.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>UC610-0832</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>3.185</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>315.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>UC610-0829</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>198.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>UC610-0827</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Kurta Payjama ( Light )</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>199.00</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>417.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>UC610-0827</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Formal and Casual Trousers / Pants</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>UC610-0827</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Shirt</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>UC610-0825</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Steam Press</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>845130</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>T - Shirt</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>55.00</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>551.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>UC610-0825</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Steam Press</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>845130</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Shirt</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>55.00</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>UC610-0825</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Steam Press</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>845130</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Wind Cheater / Rain Coat</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>54.00</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>UC610-0825</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Steam Press</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>845130</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Formal and Casual Trousers / Pants</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>UC610-0825</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Steam Press</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>845130</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Jeans</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>UC610-0824</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>UC610-0823</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Blazer / Coat - Short</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>UC610-0837</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>7.3</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>722.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>UC610-0858</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Shirt</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>517.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>UC610-0858</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Jacket Normal Short</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>UC610-0858</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Formal and Casual Trousers / Pants</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>UC610-0847</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>T - Shirt</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>UC610-0839</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>TOWELS</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>220.34</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>220.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>UC610-0826</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>139.00</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>4.265</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>592.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>UC610-0828</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2.775</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>274.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>UC610-0822</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>139.00</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>13.12</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>1823.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>UC610-0817</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CUSTOMER CARE</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Jacket Normal Short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>1345.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>UC610-0817</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CUSTOMER CARE</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Sweater / Cardigan - Full Sleeve</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>199.00</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>UC610-0817</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CUSTOMER CARE</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>COMFORTER</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>249.00</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>UC610-0816</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Premium Laundry Kg</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>249.00</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2118.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>UC610-0818</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>139.00</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>1181.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>UC610-0813</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Blazer / Coat - Short</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>897.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>UC610-0813</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Blazer / Coat - Long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>399.00</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>UC610-0813</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Sweater / Cardigan - Full Sleeve</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>199.00</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>UC610-0813</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Premium Laundry Kg</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>249.00</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>8.375</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2085.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>UC610-0811</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>3.005</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>297.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>UC610-0810</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Bath Mat ( Small )</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>49.00</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>147.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>UC610-0810</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>139.00</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>1102.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>UC610-0528</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Parka Coat Long</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>278.81</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>4067.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>UC610-0528</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Jacket - Faux fur Short</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>253.39</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>UC610-0528</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Sweater / Cardigan - Full Sleeve</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>168.64</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>UC610-0528</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Sweater / Cardigan - Sleeveless</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>143.22</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>UC610-0528</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>SHAWL</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>168.64</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>UC610-0528</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Jacket Normal Short</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>253.39</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>UC610-0528</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Shawl Woolen</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>253.39</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>UC610-0528</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Coat - Short</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>151.69</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>UC610-0833</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Jacket Puffer Short</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>603.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>UC610-0833</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Skirt Long</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>155.00</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>UC610-0833</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Jacket</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>149.00</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>UC610-0819</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>TOWELS</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>289.83</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>289.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>UC610-0830</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>towels</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>245.76</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>245.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>UC610-0769</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Shoes Sports</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>349.00</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>349.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>UC610-0774</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>238.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>UC610-0774</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>139.00</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>361.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>UC610-0799</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Jacket Normal Short</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>UC610-0799</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>9.645</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>954.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>UC610-0800</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>8.225</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>814.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>UC610-0800</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>139.00</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>973.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>UC610-0781</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Sweater / Cardigan - Full Sleeve</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>168.64</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>337.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>UC610-0781</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>216.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>UC610-0797</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>139.00</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>1.525</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>211.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>UC610-0798</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>185.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>UC610-0798</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>117.80</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>1.575</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>185.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>UC610-0791</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>492.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>UC610-0802</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Trousers</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>129.00</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>428.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>UC610-0802</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Jacket Normal Short</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>UC610-0738</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>SHOES</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>254.24</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>254.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>UC610-0805</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>SHOES</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>254.24</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>254.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>UC610-0805</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>117.80</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>8.975</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>1057.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>UC610-0780</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Blazer / Coat - Long</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>399.00</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>1485.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>UC610-0780</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Coat - Long</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>229.00</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>UC610-0780</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Suit 2 Pc</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>359.00</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>UC610-0780</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Jacket Normal Short</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>UC610-0780</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Sweatshirt / Jumper</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>199.00</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>UC610-0782</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>towel</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>203.39</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>203.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>UC610-0768</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Formal and Casual Trousers / Pants</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>408.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>UC610-0768</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Jacket Normal Short</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
           <t>UC610-0759</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>APP</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Formal and Casual Trousers / Pants</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>1006.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>UC610-0759</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Blazer / Coat - Short</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>UC610-0759</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Jacket Normal Short</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>UC610-0759</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
         <is>
           <t>Premium Laundry Kg</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>999711</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
         <is>
           <t>249.00</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L97" t="inlineStr">
         <is>
           <t>1.5</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
         <is>
           <t>373.50</t>
         </is>
